--- a/1. Project/DTNPL/DTNPL TRS_20200805A.xlsx
+++ b/1. Project/DTNPL/DTNPL TRS_20200805A.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Dev Docu\DTNPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Dev Docu\1. Project\DTNPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A48A9-8C18-4189-AFF5-DB365267D58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={9FFEBFFD-02C3-4F5E-B367-B3E40A12943F}</author>
     <author>tc={282EE263-136B-45D8-8BE7-773B3697CAAD}</author>
@@ -38,184 +39,84 @@
     <author>tc={D1F741F0-0E67-4442-A2A8-5491C41C3934}</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     이슈 발견 날짜</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="1" shapeId="0">
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     해당 이슈 발견자</t>
-        </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="2" shapeId="0">
+    <comment ref="E3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     현상설명</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="3" shapeId="0">
+    <comment ref="F3" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     해당 이슈 발견후 조치내용</t>
-        </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="4" shapeId="0">
+    <comment ref="G3" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     해당 이슈의 원임</t>
-        </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="5" shapeId="0">
+    <comment ref="H3" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     해당 이슈에 대한 최종 조치내용 (S/W 수정, H/W Rework 등)</t>
-        </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="6" shapeId="0">
+    <comment ref="I3" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Close시 날짜기입 (예: Closed(2020-06-20) )</t>
-        </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="7" shapeId="0">
+    <comment ref="J3" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     해당 이슈 처리 담당자</t>
-        </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="8" shapeId="0">
+    <comment ref="K3" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     해당 이슈 Close후 ppt 결과보고서의 파일명 (현상,원인,조치내용,조치결과 수록)</t>
-        </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="9" shapeId="0">
+    <comment ref="H8" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     확인 바람!</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -595,7 +496,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1089,15 +990,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:J10"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1154,7 +1055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>71</v>
       </c>
@@ -1187,7 +1088,7 @@
       </c>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>72</v>
       </c>
